--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>F2rl3</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H2">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I2">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J2">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.85992776147079</v>
+        <v>4.596407333333333</v>
       </c>
       <c r="N2">
-        <v>2.85992776147079</v>
+        <v>13.789222</v>
       </c>
       <c r="O2">
-        <v>0.6456713490980225</v>
+        <v>0.7081273002276354</v>
       </c>
       <c r="P2">
-        <v>0.6456713490980225</v>
+        <v>0.7081273002276355</v>
       </c>
       <c r="Q2">
-        <v>0.8650519868711772</v>
+        <v>1.900671121357111</v>
       </c>
       <c r="R2">
-        <v>0.8650519868711772</v>
+        <v>17.106040092214</v>
       </c>
       <c r="S2">
-        <v>0.1251568299514015</v>
+        <v>0.150201318114457</v>
       </c>
       <c r="T2">
-        <v>0.1251568299514015</v>
+        <v>0.150201318114457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H3">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I3">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J3">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.385940938214839</v>
+        <v>0.4230886666666667</v>
       </c>
       <c r="N3">
-        <v>0.385940938214839</v>
+        <v>1.269266</v>
       </c>
       <c r="O3">
-        <v>0.08713192326269768</v>
+        <v>0.06518148056871736</v>
       </c>
       <c r="P3">
-        <v>0.08713192326269768</v>
+        <v>0.06518148056871738</v>
       </c>
       <c r="Q3">
-        <v>0.1167368560547059</v>
+        <v>0.1749523817602222</v>
       </c>
       <c r="R3">
-        <v>0.1167368560547059</v>
+        <v>1.574571435842</v>
       </c>
       <c r="S3">
-        <v>0.01688963792239208</v>
+        <v>0.0138256840188565</v>
       </c>
       <c r="T3">
-        <v>0.01688963792239208</v>
+        <v>0.0138256840188565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H4">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I4">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J4">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.201923730094257</v>
+        <v>0.249793</v>
       </c>
       <c r="N4">
-        <v>0.201923730094257</v>
+        <v>0.749379</v>
       </c>
       <c r="O4">
-        <v>0.04558729384053202</v>
+        <v>0.03848336970115394</v>
       </c>
       <c r="P4">
-        <v>0.04558729384053202</v>
+        <v>0.03848336970115394</v>
       </c>
       <c r="Q4">
-        <v>0.06107655104709552</v>
+        <v>0.1032924862803333</v>
       </c>
       <c r="R4">
-        <v>0.06107655104709552</v>
+        <v>0.929632376523</v>
       </c>
       <c r="S4">
-        <v>0.00883663366992276</v>
+        <v>0.008162731267020988</v>
       </c>
       <c r="T4">
-        <v>0.00883663366992276</v>
+        <v>0.00816273126702099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H5">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I5">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J5">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.149699172842548</v>
+        <v>0.250229</v>
       </c>
       <c r="N5">
-        <v>0.149699172842548</v>
+        <v>0.750687</v>
       </c>
       <c r="O5">
-        <v>0.03379682109117259</v>
+        <v>0.03855054031518115</v>
       </c>
       <c r="P5">
-        <v>0.03379682109117259</v>
+        <v>0.03855054031518117</v>
       </c>
       <c r="Q5">
-        <v>0.04528001323845345</v>
+        <v>0.1034727776576667</v>
       </c>
       <c r="R5">
-        <v>0.04528001323845345</v>
+        <v>0.931254998919</v>
       </c>
       <c r="S5">
-        <v>0.006551170337842675</v>
+        <v>0.008176978867363755</v>
       </c>
       <c r="T5">
-        <v>0.006551170337842675</v>
+        <v>0.008176978867363759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H6">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I6">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J6">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.394646764343479</v>
+        <v>0.4475040000000001</v>
       </c>
       <c r="N6">
-        <v>0.394646764343479</v>
+        <v>1.342512</v>
       </c>
       <c r="O6">
-        <v>0.08909739336205467</v>
+        <v>0.06894293224688118</v>
       </c>
       <c r="P6">
-        <v>0.08909739336205467</v>
+        <v>0.06894293224688119</v>
       </c>
       <c r="Q6">
-        <v>0.1193701366191289</v>
+        <v>0.185048423216</v>
       </c>
       <c r="R6">
-        <v>0.1193701366191289</v>
+        <v>1.665435808944</v>
       </c>
       <c r="S6">
-        <v>0.01727062432877891</v>
+        <v>0.0146235278527299</v>
       </c>
       <c r="T6">
-        <v>0.01727062432877891</v>
+        <v>0.01462352785272991</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H7">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I7">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J7">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.437247829999458</v>
+        <v>0.5239116666666667</v>
       </c>
       <c r="N7">
-        <v>0.437247829999458</v>
+        <v>1.571735</v>
       </c>
       <c r="O7">
-        <v>0.09871521934552063</v>
+        <v>0.0807143769404309</v>
       </c>
       <c r="P7">
-        <v>0.09871521934552063</v>
+        <v>0.08071437694043092</v>
       </c>
       <c r="Q7">
-        <v>0.1322558244973367</v>
+        <v>0.2166439357438889</v>
       </c>
       <c r="R7">
-        <v>0.1322558244973367</v>
+        <v>1.949795421695</v>
       </c>
       <c r="S7">
-        <v>0.01913494216291603</v>
+        <v>0.01712037624215682</v>
       </c>
       <c r="T7">
-        <v>0.01913494216291603</v>
+        <v>0.01712037624215682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H8">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I8">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J8">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.85992776147079</v>
+        <v>4.596407333333333</v>
       </c>
       <c r="N8">
-        <v>2.85992776147079</v>
+        <v>13.789222</v>
       </c>
       <c r="O8">
-        <v>0.6456713490980225</v>
+        <v>0.7081273002276354</v>
       </c>
       <c r="P8">
-        <v>0.6456713490980225</v>
+        <v>0.7081273002276355</v>
       </c>
       <c r="Q8">
-        <v>1.68231089971473</v>
+        <v>2.775183580597111</v>
       </c>
       <c r="R8">
-        <v>1.68231089971473</v>
+        <v>24.976652225374</v>
       </c>
       <c r="S8">
-        <v>0.2433988967097084</v>
+        <v>0.2193100253544424</v>
       </c>
       <c r="T8">
-        <v>0.2433988967097084</v>
+        <v>0.2193100253544425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H9">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I9">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J9">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.385940938214839</v>
+        <v>0.4230886666666667</v>
       </c>
       <c r="N9">
-        <v>0.385940938214839</v>
+        <v>1.269266</v>
       </c>
       <c r="O9">
-        <v>0.08713192326269768</v>
+        <v>0.06518148056871736</v>
       </c>
       <c r="P9">
-        <v>0.08713192326269768</v>
+        <v>0.06518148056871738</v>
       </c>
       <c r="Q9">
-        <v>0.227024142271009</v>
+        <v>0.2554492314802222</v>
       </c>
       <c r="R9">
-        <v>0.227024142271009</v>
+        <v>2.299043083322</v>
       </c>
       <c r="S9">
-        <v>0.03284614381598638</v>
+        <v>0.02018698071882023</v>
       </c>
       <c r="T9">
-        <v>0.03284614381598638</v>
+        <v>0.02018698071882024</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H10">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I10">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J10">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.201923730094257</v>
+        <v>0.249793</v>
       </c>
       <c r="N10">
-        <v>0.201923730094257</v>
+        <v>0.749379</v>
       </c>
       <c r="O10">
-        <v>0.04558729384053202</v>
+        <v>0.03848336970115394</v>
       </c>
       <c r="P10">
-        <v>0.04558729384053202</v>
+        <v>0.03848336970115394</v>
       </c>
       <c r="Q10">
-        <v>0.1187786966597804</v>
+        <v>0.1508181024603333</v>
       </c>
       <c r="R10">
-        <v>0.1187786966597804</v>
+        <v>1.357362922143</v>
       </c>
       <c r="S10">
-        <v>0.01718505403758013</v>
+        <v>0.01191846265801557</v>
       </c>
       <c r="T10">
-        <v>0.01718505403758013</v>
+        <v>0.01191846265801557</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H11">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I11">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J11">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.149699172842548</v>
+        <v>0.250229</v>
       </c>
       <c r="N11">
-        <v>0.149699172842548</v>
+        <v>0.750687</v>
       </c>
       <c r="O11">
-        <v>0.03379682109117259</v>
+        <v>0.03855054031518115</v>
       </c>
       <c r="P11">
-        <v>0.03379682109117259</v>
+        <v>0.03855054031518117</v>
       </c>
       <c r="Q11">
-        <v>0.08805836061459905</v>
+        <v>0.1510813471976667</v>
       </c>
       <c r="R11">
-        <v>0.08805836061459905</v>
+        <v>1.359732124779</v>
       </c>
       <c r="S11">
-        <v>0.01274039645305365</v>
+        <v>0.01193926568179483</v>
       </c>
       <c r="T11">
-        <v>0.01274039645305365</v>
+        <v>0.01193926568179484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H12">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I12">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J12">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.394646764343479</v>
+        <v>0.4475040000000001</v>
       </c>
       <c r="N12">
-        <v>0.394646764343479</v>
+        <v>1.342512</v>
       </c>
       <c r="O12">
-        <v>0.08909739336205467</v>
+        <v>0.06894293224688118</v>
       </c>
       <c r="P12">
-        <v>0.08909739336205467</v>
+        <v>0.06894293224688119</v>
       </c>
       <c r="Q12">
-        <v>0.2321452178396102</v>
+        <v>0.270190534256</v>
       </c>
       <c r="R12">
-        <v>0.2321452178396102</v>
+        <v>2.431714808304001</v>
       </c>
       <c r="S12">
-        <v>0.03358706759147635</v>
+        <v>0.0213519182415544</v>
       </c>
       <c r="T12">
-        <v>0.03358706759147635</v>
+        <v>0.02135191824155441</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H13">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I13">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J13">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.437247829999458</v>
+        <v>0.5239116666666667</v>
       </c>
       <c r="N13">
-        <v>0.437247829999458</v>
+        <v>1.571735</v>
       </c>
       <c r="O13">
-        <v>0.09871521934552063</v>
+        <v>0.0807143769404309</v>
       </c>
       <c r="P13">
-        <v>0.09871521934552063</v>
+        <v>0.08071437694043092</v>
       </c>
       <c r="Q13">
-        <v>0.2572046749552889</v>
+        <v>0.3163233694438889</v>
       </c>
       <c r="R13">
-        <v>0.2572046749552889</v>
+        <v>2.846910324995</v>
       </c>
       <c r="S13">
-        <v>0.03721270195854533</v>
+        <v>0.02499758454106146</v>
       </c>
       <c r="T13">
-        <v>0.03721270195854533</v>
+        <v>0.02499758454106146</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H14">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I14">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J14">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.85992776147079</v>
+        <v>4.596407333333333</v>
       </c>
       <c r="N14">
-        <v>2.85992776147079</v>
+        <v>13.789222</v>
       </c>
       <c r="O14">
-        <v>0.6456713490980225</v>
+        <v>0.7081273002276354</v>
       </c>
       <c r="P14">
-        <v>0.6456713490980225</v>
+        <v>0.7081273002276355</v>
       </c>
       <c r="Q14">
-        <v>0.7929791971969719</v>
+        <v>1.384394988998222</v>
       </c>
       <c r="R14">
-        <v>0.7929791971969719</v>
+        <v>12.459554900984</v>
       </c>
       <c r="S14">
-        <v>0.1147292463861597</v>
+        <v>0.1094023841379307</v>
       </c>
       <c r="T14">
-        <v>0.1147292463861597</v>
+        <v>0.1094023841379307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H15">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I15">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J15">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.385940938214839</v>
+        <v>0.4230886666666667</v>
       </c>
       <c r="N15">
-        <v>0.385940938214839</v>
+        <v>1.269266</v>
       </c>
       <c r="O15">
-        <v>0.08713192326269768</v>
+        <v>0.06518148056871736</v>
       </c>
       <c r="P15">
-        <v>0.08713192326269768</v>
+        <v>0.06518148056871738</v>
       </c>
       <c r="Q15">
-        <v>0.1070107921864637</v>
+        <v>0.1274303575724444</v>
       </c>
       <c r="R15">
-        <v>0.1070107921864637</v>
+        <v>1.146873218152</v>
       </c>
       <c r="S15">
-        <v>0.01548245853880744</v>
+        <v>0.01007023648652656</v>
       </c>
       <c r="T15">
-        <v>0.01548245853880744</v>
+        <v>0.01007023648652657</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H16">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I16">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J16">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.201923730094257</v>
+        <v>0.249793</v>
       </c>
       <c r="N16">
-        <v>0.201923730094257</v>
+        <v>0.749379</v>
       </c>
       <c r="O16">
-        <v>0.04558729384053202</v>
+        <v>0.03848336970115394</v>
       </c>
       <c r="P16">
-        <v>0.04558729384053202</v>
+        <v>0.03848336970115394</v>
       </c>
       <c r="Q16">
-        <v>0.05598788876499997</v>
+        <v>0.07523532019866667</v>
       </c>
       <c r="R16">
-        <v>0.05598788876499997</v>
+        <v>0.677117881788</v>
       </c>
       <c r="S16">
-        <v>0.008100399490259303</v>
+        <v>0.005945502162696226</v>
       </c>
       <c r="T16">
-        <v>0.008100399490259303</v>
+        <v>0.005945502162696227</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H17">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I17">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J17">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.149699172842548</v>
+        <v>0.250229</v>
       </c>
       <c r="N17">
-        <v>0.149699172842548</v>
+        <v>0.750687</v>
       </c>
       <c r="O17">
-        <v>0.03379682109117259</v>
+        <v>0.03855054031518115</v>
       </c>
       <c r="P17">
-        <v>0.03379682109117259</v>
+        <v>0.03855054031518117</v>
       </c>
       <c r="Q17">
-        <v>0.04150745746133312</v>
+        <v>0.07536663932933332</v>
       </c>
       <c r="R17">
-        <v>0.04150745746133312</v>
+        <v>0.678299753964</v>
       </c>
       <c r="S17">
-        <v>0.006005352133798087</v>
+        <v>0.005955879711078027</v>
       </c>
       <c r="T17">
-        <v>0.006005352133798087</v>
+        <v>0.005955879711078031</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H18">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I18">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J18">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.394646764343479</v>
+        <v>0.4475040000000001</v>
       </c>
       <c r="N18">
-        <v>0.394646764343479</v>
+        <v>1.342512</v>
       </c>
       <c r="O18">
-        <v>0.08909739336205467</v>
+        <v>0.06894293224688118</v>
       </c>
       <c r="P18">
-        <v>0.08909739336205467</v>
+        <v>0.06894293224688119</v>
       </c>
       <c r="Q18">
-        <v>0.1094246779871579</v>
+        <v>0.134784028096</v>
       </c>
       <c r="R18">
-        <v>0.1094246779871579</v>
+        <v>1.213056252864</v>
       </c>
       <c r="S18">
-        <v>0.01583170262964215</v>
+        <v>0.01065136332809651</v>
       </c>
       <c r="T18">
-        <v>0.01583170262964215</v>
+        <v>0.01065136332809652</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H19">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I19">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J19">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.437247829999458</v>
+        <v>0.5239116666666667</v>
       </c>
       <c r="N19">
-        <v>0.437247829999458</v>
+        <v>1.571735</v>
       </c>
       <c r="O19">
-        <v>0.09871521934552063</v>
+        <v>0.0807143769404309</v>
       </c>
       <c r="P19">
-        <v>0.09871521934552063</v>
+        <v>0.08071437694043092</v>
       </c>
       <c r="Q19">
-        <v>0.1212367801313885</v>
+        <v>0.1577973041577778</v>
       </c>
       <c r="R19">
-        <v>0.1212367801313885</v>
+        <v>1.42017573742</v>
       </c>
       <c r="S19">
-        <v>0.01754069270407823</v>
+        <v>0.01246999694638541</v>
       </c>
       <c r="T19">
-        <v>0.01754069270407823</v>
+        <v>0.01246999694638541</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H20">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I20">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J20">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.85992776147079</v>
+        <v>4.596407333333333</v>
       </c>
       <c r="N20">
-        <v>2.85992776147079</v>
+        <v>13.789222</v>
       </c>
       <c r="O20">
-        <v>0.6456713490980225</v>
+        <v>0.7081273002276354</v>
       </c>
       <c r="P20">
-        <v>0.6456713490980225</v>
+        <v>0.7081273002276355</v>
       </c>
       <c r="Q20">
-        <v>1.122373084218094</v>
+        <v>0.6070490486491109</v>
       </c>
       <c r="R20">
-        <v>1.122373084218094</v>
+        <v>5.463441437842</v>
       </c>
       <c r="S20">
-        <v>0.1623863760507529</v>
+        <v>0.04797230106917175</v>
       </c>
       <c r="T20">
-        <v>0.1623863760507529</v>
+        <v>0.04797230106917177</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H21">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I21">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J21">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.385940938214839</v>
+        <v>0.4230886666666667</v>
       </c>
       <c r="N21">
-        <v>0.385940938214839</v>
+        <v>1.269266</v>
       </c>
       <c r="O21">
-        <v>0.08713192326269768</v>
+        <v>0.06518148056871736</v>
       </c>
       <c r="P21">
-        <v>0.08713192326269768</v>
+        <v>0.06518148056871738</v>
       </c>
       <c r="Q21">
-        <v>0.1514617701138875</v>
+        <v>0.05587746123622222</v>
       </c>
       <c r="R21">
-        <v>0.1514617701138875</v>
+        <v>0.502897151126</v>
       </c>
       <c r="S21">
-        <v>0.02191368298551178</v>
+        <v>0.004415739386084535</v>
       </c>
       <c r="T21">
-        <v>0.02191368298551178</v>
+        <v>0.004415739386084537</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H22">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I22">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J22">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.201923730094257</v>
+        <v>0.249793</v>
       </c>
       <c r="N22">
-        <v>0.201923730094257</v>
+        <v>0.749379</v>
       </c>
       <c r="O22">
-        <v>0.04558729384053202</v>
+        <v>0.03848336970115394</v>
       </c>
       <c r="P22">
-        <v>0.04558729384053202</v>
+        <v>0.03848336970115394</v>
       </c>
       <c r="Q22">
-        <v>0.07924457490708123</v>
+        <v>0.03299024477433333</v>
       </c>
       <c r="R22">
-        <v>0.07924457490708123</v>
+        <v>0.296912202969</v>
       </c>
       <c r="S22">
-        <v>0.01146520664276983</v>
+        <v>0.002607067679591703</v>
       </c>
       <c r="T22">
-        <v>0.01146520664276983</v>
+        <v>0.002607067679591704</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H23">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I23">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J23">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.149699172842548</v>
+        <v>0.250229</v>
       </c>
       <c r="N23">
-        <v>0.149699172842548</v>
+        <v>0.750687</v>
       </c>
       <c r="O23">
-        <v>0.03379682109117259</v>
+        <v>0.03855054031518115</v>
       </c>
       <c r="P23">
-        <v>0.03379682109117259</v>
+        <v>0.03855054031518117</v>
       </c>
       <c r="Q23">
-        <v>0.05874914904905865</v>
+        <v>0.03304782743966666</v>
       </c>
       <c r="R23">
-        <v>0.05874914904905865</v>
+        <v>0.297430446957</v>
       </c>
       <c r="S23">
-        <v>0.00849990216647818</v>
+        <v>0.002611618173433812</v>
       </c>
       <c r="T23">
-        <v>0.00849990216647818</v>
+        <v>0.002611618173433813</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H24">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I24">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J24">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.394646764343479</v>
+        <v>0.4475040000000001</v>
       </c>
       <c r="N24">
-        <v>0.394646764343479</v>
+        <v>1.342512</v>
       </c>
       <c r="O24">
-        <v>0.08909739336205467</v>
+        <v>0.06894293224688118</v>
       </c>
       <c r="P24">
-        <v>0.08909739336205467</v>
+        <v>0.06894293224688119</v>
       </c>
       <c r="Q24">
-        <v>0.154878354635464</v>
+        <v>0.059102002448</v>
       </c>
       <c r="R24">
-        <v>0.154878354635464</v>
+        <v>0.531918022032</v>
       </c>
       <c r="S24">
-        <v>0.02240799881215727</v>
+        <v>0.004670560083300995</v>
       </c>
       <c r="T24">
-        <v>0.02240799881215727</v>
+        <v>0.004670560083300997</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.396211</v>
+      </c>
+      <c r="I25">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J25">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5239116666666667</v>
+      </c>
+      <c r="N25">
+        <v>1.571735</v>
+      </c>
+      <c r="O25">
+        <v>0.0807143769404309</v>
+      </c>
+      <c r="P25">
+        <v>0.08071437694043092</v>
+      </c>
+      <c r="Q25">
+        <v>0.06919318845388887</v>
+      </c>
+      <c r="R25">
+        <v>0.6227386960849999</v>
+      </c>
+      <c r="S25">
+        <v>0.005468020213247322</v>
+      </c>
+      <c r="T25">
+        <v>0.005468020213247324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.223082</v>
+      </c>
+      <c r="I26">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J26">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.596407333333333</v>
+      </c>
+      <c r="N26">
+        <v>13.789222</v>
+      </c>
+      <c r="O26">
+        <v>0.7081273002276354</v>
+      </c>
+      <c r="P26">
+        <v>0.7081273002276355</v>
+      </c>
+      <c r="Q26">
+        <v>0.3417919135782222</v>
+      </c>
+      <c r="R26">
+        <v>3.076127222204</v>
+      </c>
+      <c r="S26">
+        <v>0.02701024672993171</v>
+      </c>
+      <c r="T26">
+        <v>0.02701024672993172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.223082</v>
+      </c>
+      <c r="I27">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J27">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.4230886666666667</v>
+      </c>
+      <c r="N27">
+        <v>1.269266</v>
+      </c>
+      <c r="O27">
+        <v>0.06518148056871736</v>
+      </c>
+      <c r="P27">
+        <v>0.06518148056871738</v>
+      </c>
+      <c r="Q27">
+        <v>0.03146115531244445</v>
+      </c>
+      <c r="R27">
+        <v>0.283150397812</v>
+      </c>
+      <c r="S27">
+        <v>0.002486230755144381</v>
+      </c>
+      <c r="T27">
+        <v>0.002486230755144382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.223082</v>
+      </c>
+      <c r="I28">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J28">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.249793</v>
+      </c>
+      <c r="N28">
+        <v>0.749379</v>
+      </c>
+      <c r="O28">
+        <v>0.03848336970115394</v>
+      </c>
+      <c r="P28">
+        <v>0.03848336970115394</v>
+      </c>
+      <c r="Q28">
+        <v>0.01857477400866667</v>
+      </c>
+      <c r="R28">
+        <v>0.167172966078</v>
+      </c>
+      <c r="S28">
+        <v>0.001467879165643247</v>
+      </c>
+      <c r="T28">
+        <v>0.001467879165643247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.223082</v>
+      </c>
+      <c r="I29">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J29">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.250229</v>
+      </c>
+      <c r="N29">
+        <v>0.750687</v>
+      </c>
+      <c r="O29">
+        <v>0.03855054031518115</v>
+      </c>
+      <c r="P29">
+        <v>0.03855054031518117</v>
+      </c>
+      <c r="Q29">
+        <v>0.01860719525933333</v>
+      </c>
+      <c r="R29">
+        <v>0.167464757334</v>
+      </c>
+      <c r="S29">
+        <v>0.001470441268329152</v>
+      </c>
+      <c r="T29">
+        <v>0.001470441268329153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.223082</v>
+      </c>
+      <c r="I30">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J30">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.4475040000000001</v>
+      </c>
+      <c r="N30">
+        <v>1.342512</v>
+      </c>
+      <c r="O30">
+        <v>0.06894293224688118</v>
+      </c>
+      <c r="P30">
+        <v>0.06894293224688119</v>
+      </c>
+      <c r="Q30">
+        <v>0.03327669577600001</v>
+      </c>
+      <c r="R30">
+        <v>0.299490261984</v>
+      </c>
+      <c r="S30">
+        <v>0.002629704587966898</v>
+      </c>
+      <c r="T30">
+        <v>0.002629704587966899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.223082</v>
+      </c>
+      <c r="I31">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J31">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.5239116666666667</v>
+      </c>
+      <c r="N31">
+        <v>1.571735</v>
+      </c>
+      <c r="O31">
+        <v>0.0807143769404309</v>
+      </c>
+      <c r="P31">
+        <v>0.08071437694043092</v>
+      </c>
+      <c r="Q31">
+        <v>0.03895842080777778</v>
+      </c>
+      <c r="R31">
+        <v>0.35062578727</v>
+      </c>
+      <c r="S31">
+        <v>0.003078705248495472</v>
+      </c>
+      <c r="T31">
+        <v>0.003078705248495472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H32">
+        <v>1.273819</v>
+      </c>
+      <c r="I32">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J32">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.596407333333333</v>
+      </c>
+      <c r="N32">
+        <v>13.789222</v>
+      </c>
+      <c r="O32">
+        <v>0.7081273002276354</v>
+      </c>
+      <c r="P32">
+        <v>0.7081273002276355</v>
+      </c>
+      <c r="Q32">
+        <v>1.951663664313111</v>
+      </c>
+      <c r="R32">
+        <v>17.564972978818</v>
+      </c>
+      <c r="S32">
+        <v>0.1542310248217018</v>
+      </c>
+      <c r="T32">
+        <v>0.1542310248217018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H33">
+        <v>1.273819</v>
+      </c>
+      <c r="I33">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J33">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.4230886666666667</v>
+      </c>
+      <c r="N33">
+        <v>1.269266</v>
+      </c>
+      <c r="O33">
+        <v>0.06518148056871736</v>
+      </c>
+      <c r="P33">
+        <v>0.06518148056871738</v>
+      </c>
+      <c r="Q33">
+        <v>0.1796461274282222</v>
+      </c>
+      <c r="R33">
+        <v>1.616815146854</v>
+      </c>
+      <c r="S33">
+        <v>0.01419660920328516</v>
+      </c>
+      <c r="T33">
+        <v>0.01419660920328517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H34">
+        <v>1.273819</v>
+      </c>
+      <c r="I34">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J34">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.249793</v>
+      </c>
+      <c r="N34">
+        <v>0.749379</v>
+      </c>
+      <c r="O34">
+        <v>0.03848336970115394</v>
+      </c>
+      <c r="P34">
+        <v>0.03848336970115394</v>
+      </c>
+      <c r="Q34">
+        <v>0.1060636898223333</v>
+      </c>
+      <c r="R34">
+        <v>0.954573208401</v>
+      </c>
+      <c r="S34">
+        <v>0.008381726768186205</v>
+      </c>
+      <c r="T34">
+        <v>0.008381726768186205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.392448053877027</v>
-      </c>
-      <c r="H25">
-        <v>0.392448053877027</v>
-      </c>
-      <c r="I25">
-        <v>0.251500049177651</v>
-      </c>
-      <c r="J25">
-        <v>0.251500049177651</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.437247829999458</v>
-      </c>
-      <c r="N25">
-        <v>0.437247829999458</v>
-      </c>
-      <c r="O25">
-        <v>0.09871521934552063</v>
-      </c>
-      <c r="P25">
-        <v>0.09871521934552063</v>
-      </c>
-      <c r="Q25">
-        <v>0.1715970599452404</v>
-      </c>
-      <c r="R25">
-        <v>0.1715970599452404</v>
-      </c>
-      <c r="S25">
-        <v>0.02482688251998105</v>
-      </c>
-      <c r="T25">
-        <v>0.02482688251998105</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H35">
+        <v>1.273819</v>
+      </c>
+      <c r="I35">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J35">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.250229</v>
+      </c>
+      <c r="N35">
+        <v>0.750687</v>
+      </c>
+      <c r="O35">
+        <v>0.03855054031518115</v>
+      </c>
+      <c r="P35">
+        <v>0.03855054031518117</v>
+      </c>
+      <c r="Q35">
+        <v>0.1062488181836667</v>
+      </c>
+      <c r="R35">
+        <v>0.956239363653</v>
+      </c>
+      <c r="S35">
+        <v>0.008396356613181576</v>
+      </c>
+      <c r="T35">
+        <v>0.008396356613181579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H36">
+        <v>1.273819</v>
+      </c>
+      <c r="I36">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J36">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.4475040000000001</v>
+      </c>
+      <c r="N36">
+        <v>1.342512</v>
+      </c>
+      <c r="O36">
+        <v>0.06894293224688118</v>
+      </c>
+      <c r="P36">
+        <v>0.06894293224688119</v>
+      </c>
+      <c r="Q36">
+        <v>0.190013032592</v>
+      </c>
+      <c r="R36">
+        <v>1.710117293328</v>
+      </c>
+      <c r="S36">
+        <v>0.01501585815323247</v>
+      </c>
+      <c r="T36">
+        <v>0.01501585815323248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H37">
+        <v>1.273819</v>
+      </c>
+      <c r="I37">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J37">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.5239116666666667</v>
+      </c>
+      <c r="N37">
+        <v>1.571735</v>
+      </c>
+      <c r="O37">
+        <v>0.0807143769404309</v>
+      </c>
+      <c r="P37">
+        <v>0.08071437694043092</v>
+      </c>
+      <c r="Q37">
+        <v>0.2224562117738889</v>
+      </c>
+      <c r="R37">
+        <v>2.002105905965</v>
+      </c>
+      <c r="S37">
+        <v>0.01757969374908443</v>
+      </c>
+      <c r="T37">
+        <v>0.01757969374908443</v>
       </c>
     </row>
   </sheetData>
